--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-education-level.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-education-level.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-education-level.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-education-level.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-education-level.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-education-level.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-education-level.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-education-level.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -325,9 +325,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:academicDegree</t>
   </si>
   <si>
@@ -372,6 +369,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension:academicDegree.value[x]</t>
@@ -1228,24 +1228,24 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>91</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1270,10 +1270,10 @@
         <v>93</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1333,7 +1333,7 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>83</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1447,10 +1447,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1479,7 +1479,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1539,7 +1539,7 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>83</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1576,16 +1576,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1635,22 +1635,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1745,13 +1745,13 @@
         <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
@@ -1790,7 +1790,7 @@
         <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1850,7 +1850,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>83</v>
@@ -1864,7 +1864,7 @@
         <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1967,7 +1967,7 @@
         <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1996,7 +1996,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2056,7 +2056,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>83</v>
@@ -2070,7 +2070,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2093,16 +2093,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2152,22 +2152,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="14">
@@ -2262,13 +2262,13 @@
         <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -2307,7 +2307,7 @@
         <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2367,7 +2367,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>83</v>
@@ -2381,7 +2381,7 @@
         <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2484,7 +2484,7 @@
         <v>138</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2513,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2573,7 +2573,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>83</v>
@@ -2587,7 +2587,7 @@
         <v>139</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2610,16 +2610,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2669,22 +2669,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -2779,21 +2779,21 @@
         <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2816,16 +2816,16 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -2875,22 +2875,22 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -2987,13 +2987,13 @@
         <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
